--- a/Chapter10/Chapter10.xlsx
+++ b/Chapter10/Chapter10.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\courses\qmsa\Chapter10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89B528-E17D-4F9E-A219-64DB739FA6B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="1060" windowWidth="25760" windowHeight="14290" activeTab="3" xr2:uid="{A7B7E7D4-F2B7-41E8-9F41-7508E822D6EA}"/>
+    <workbookView xWindow="6192" yWindow="1056" windowWidth="25764" windowHeight="14292"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 10 - Home Sales" sheetId="2" r:id="rId1"/>
@@ -322,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -797,21 +796,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73958991-FFA6-4D89-AB03-DDC0CF5372EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
@@ -819,7 +818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>54000</v>
       </c>
@@ -827,7 +826,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>167600</v>
       </c>
@@ -835,7 +834,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>168483</v>
       </c>
@@ -843,7 +842,7 @@
         <v>159900</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>150000</v>
       </c>
@@ -851,7 +850,7 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>167000</v>
       </c>
@@ -859,7 +858,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>184900</v>
       </c>
@@ -867,7 +866,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>179900</v>
       </c>
@@ -875,7 +874,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>94000</v>
       </c>
@@ -883,7 +882,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>312777</v>
       </c>
@@ -891,7 +890,7 @@
         <v>157850</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>154000</v>
       </c>
@@ -899,7 +898,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>218900</v>
       </c>
@@ -907,7 +906,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>234900</v>
       </c>
@@ -915,7 +914,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>218190</v>
       </c>
@@ -923,7 +922,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>115000</v>
       </c>
@@ -931,7 +930,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>125000</v>
       </c>
@@ -939,7 +938,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>100500</v>
       </c>
@@ -947,7 +946,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>94000</v>
       </c>
@@ -955,7 +954,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>119900</v>
       </c>
@@ -963,7 +962,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>86500</v>
       </c>
@@ -971,7 +970,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>237160</v>
       </c>
@@ -979,7 +978,7 @@
         <v>337940</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>135000</v>
       </c>
@@ -987,7 +986,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>140000</v>
       </c>
@@ -995,7 +994,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>186000</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>160500</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>177500</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>145000</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>798000</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>164900</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>65000</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>159900</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>149900</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>109900</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>69550</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>170000</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>204650</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>77500</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>139900</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>259900</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>248000</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>126000</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>172650</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>293133</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>106000</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="D43" s="2"/>
     </row>
@@ -1150,22 +1149,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9D797B-7CD3-483A-8BCA-40A5699A308C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>83342852</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>83323290</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>74423965</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>83362264</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>51012015</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>83323215</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>83214917</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>83994196</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>83786881</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>74424183</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>83342041</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>83135635</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>83323298</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>73165675</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>83323813</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>83186625</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>78625214</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>83268174</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>83323273</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>83323071</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>83135678</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>51011954</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>83627295</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>83342546</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>78625088</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>83155612</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>83323327</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>83186788</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>83342449</v>
       </c>
@@ -1599,26 +1598,26 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD31EAE-02E2-4471-B8F9-E282B4C5FDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="16.54296875" style="10" customWidth="1"/>
+    <col min="1" max="5" width="16.5546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>111220</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>27.4496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>117360</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>0.34217189999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>110450</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>5.4872820000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>206350</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>2.2730320000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>604680</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>6.1928029999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>119880</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>1.8223940000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>110170</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>11.966290000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>105030</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>21.308070000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>310920</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>20.69792</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>400450</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>4.7032619999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>603760</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>11.508089999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>524020</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>28.777660000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>105310</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>2.0775410000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>105560</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>11.5092</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>119470</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>1.752534</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>205350</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>18.444230000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>515430</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>2.0190109999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>402240</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>17.876180000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>203190</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>2.1587200000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>305220</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>2.3214030000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>309150</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>0.1453055</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>120351</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>65.104929999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>501990</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>6.255611</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>532310</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>0.16245000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>521890</v>
       </c>
@@ -1990,22 +1989,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E4C3B7-B8A1-463E-80D8-2C34AFA60655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="3" width="17.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2019,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
@@ -2052,7 +2051,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
@@ -2068,7 +2067,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
@@ -2084,7 +2083,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
@@ -2100,7 +2099,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2115,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2131,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2147,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
@@ -2180,7 +2179,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2195,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
@@ -2228,7 +2227,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
@@ -2244,7 +2243,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2259,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -2275,7 +2274,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
@@ -2290,7 +2289,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>20</v>
       </c>
@@ -2320,7 +2319,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
@@ -2335,7 +2334,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2349,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -2395,7 +2394,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>14</v>
       </c>
@@ -2410,7 +2409,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2424,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
@@ -2440,7 +2439,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
@@ -2455,7 +2454,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2464,25 +2463,25 @@
       <c r="F30" s="17"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2495,19 +2494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B9D2C4-5BBB-407B-8E81-AA7222F74FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="12" width="8.7265625" style="10"/>
+    <col min="9" max="12" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>9.42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38" s="10" t="s">
         <v>43</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E39" s="10" t="s">
         <v>42</v>
       </c>
